--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-04-using-the-workdays-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-04-using-the-workdays-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{88D31F07-718F-4B9C-8E6D-3CAFED03B9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467FEC24-05BE-4A20-A66A-F230DC0FD871}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D630FBD-6DA2-40B9-991A-4774FB9152D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{198C9644-7785-416C-93C3-434773D2EE8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{198C9644-7785-416C-93C3-434773D2EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKDAYS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Task Name</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Using the WORKDAY and WORKDAY.INT Functions</t>
+  </si>
+  <si>
+    <t>WORKDAY()</t>
+  </si>
+  <si>
+    <t>WORKDAY.INTL()</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -225,11 +231,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,13 +274,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,299 +598,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135ACAD8-B643-4ED5-81B9-667A7B79E8BC}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43831</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <f>WORKDAY(B4,C4,J6:J15)</f>
+        <v>43838</v>
+      </c>
+      <c r="F4" s="5">
+        <f>WORKDAY.INTL(B4,C4,2,J6:J15)</f>
+        <v>43838</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43837</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <f>WORKDAY(B5,C5,J7:J15)</f>
+        <v>43838</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F14" si="0">WORKDAY.INTL(B5,C5,2,J7:J16)</f>
+        <v>43838</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43839</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f>WORKDAY(B6,C6,G8:G16)</f>
+        <v>43844</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>43844</v>
+      </c>
+      <c r="J6" s="3">
+        <v>43831</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43841</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <f>WORKDAY(B7,C7,G9:G17)</f>
+        <v>43845</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>43846</v>
+      </c>
+      <c r="J7" s="3">
+        <v>43923</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43843</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <f>WORKDAY(B8,C8,G10:G18)</f>
+        <v>43845</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>43845</v>
+      </c>
+      <c r="J8" s="3">
+        <v>43926</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43847</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <f>WORKDAY(B9,C9,G11:G19)</f>
+        <v>43851</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>43851</v>
+      </c>
+      <c r="J9" s="3">
+        <v>43954</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43850</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <f>WORKDAY(B10,C10,G12:G20)</f>
+        <v>43851</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>43851</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43982</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43853</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f>WORKDAY(B11,C11,G13:G21)</f>
+        <v>43854</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>43854</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44073</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43855</v>
+      </c>
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
-        <v>43831</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9">
-        <v>43837</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3">
-        <v>43831</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>43839</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
-        <v>43923</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <f>WORKDAY(B12,C12,G14:G22)</f>
+        <v>43860</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>43861</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44190</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43857</v>
+      </c>
+      <c r="C13" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>43841</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3">
-        <v>43926</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>43843</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3">
-        <v>43954</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9">
-        <v>43847</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3">
-        <v>43982</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
-        <v>43850</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3">
-        <v>44073</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43853</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3">
-        <v>44190</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9">
-        <v>43855</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="D13" s="7">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <f>WORKDAY(B13,C13,G15:G23)</f>
+        <v>43867</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>43867</v>
+      </c>
+      <c r="J13" s="3">
+        <v>44191</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43858</v>
+      </c>
+      <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D14" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3">
-        <v>44191</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9">
-        <v>43857</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3">
+      <c r="E14" s="8">
+        <f>WORKDAY(B14,C14,G16:G24)</f>
+        <v>43864</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>43862</v>
+      </c>
+      <c r="J14" s="3">
         <v>44192</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="9">
-        <v>43858</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3">
-        <v>44193</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>44193</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -863,22 +973,21 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1"/>
@@ -886,88 +995,88 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>43831</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>43924</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>43837</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>43844</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>43839</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>43843</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>43841</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>43845</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>43843</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>43858</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
